--- a/TestingDoc.xlsx
+++ b/TestingDoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final Year\UG\AVEES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F75BE8A-431B-4FA4-A43B-E53CA8EF4230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDA3687-4201-4919-8D23-CF8685549738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C1C37915-459E-4046-A309-31ECBDF746D5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{C1C37915-459E-4046-A309-31ECBDF746D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Testing Doc" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Test Case</t>
   </si>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>Bikash Chaudhary</t>
+  </si>
+  <si>
+    <t>Register New Vehicle</t>
+  </si>
+  <si>
+    <t>Registering new vehicle RFID Tag</t>
+  </si>
+  <si>
+    <t>83867E92</t>
+  </si>
+  <si>
+    <t>Registered Successfully</t>
   </si>
 </sst>
 </file>
@@ -225,19 +237,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -246,6 +252,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6960B7D-E4AE-4A32-AACA-8550665F0CBE}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +584,7 @@
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="6" width="40" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -737,6 +750,29 @@
       </c>
       <c r="G8" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +785,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,81 +793,81 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -863,23 +899,23 @@
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>41</v>
       </c>
     </row>

--- a/TestingDoc.xlsx
+++ b/TestingDoc.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final Year\UG\AVEES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDA3687-4201-4919-8D23-CF8685549738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3633571-3706-4962-B6A8-0199F479448E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{C1C37915-459E-4046-A309-31ECBDF746D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{C1C37915-459E-4046-A309-31ECBDF746D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Testing Doc" sheetId="1" r:id="rId1"/>
     <sheet name="Integration Testing Doc" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Bugs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
   <si>
     <t>Test Case</t>
   </si>
@@ -194,13 +194,112 @@
   </si>
   <si>
     <t>Registered Successfully</t>
+  </si>
+  <si>
+    <t>Trigger Buzzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing the buzzer </t>
+  </si>
+  <si>
+    <t>status changed to stolen</t>
+  </si>
+  <si>
+    <t>Beep Buzzer</t>
+  </si>
+  <si>
+    <t>Search Vehicle</t>
+  </si>
+  <si>
+    <t>Search Vehicle by Vehicle Number</t>
+  </si>
+  <si>
+    <t>Display vehicle details</t>
+  </si>
+  <si>
+    <t>Show Bar Graph</t>
+  </si>
+  <si>
+    <t>showing bargraph</t>
+  </si>
+  <si>
+    <t>data of vehicles</t>
+  </si>
+  <si>
+    <t>Displayed bar graph</t>
+  </si>
+  <si>
+    <t>Show Pie Chart</t>
+  </si>
+  <si>
+    <t>showing pie chart</t>
+  </si>
+  <si>
+    <t>Display pie chart</t>
+  </si>
+  <si>
+    <t>Displayed pie chart</t>
+  </si>
+  <si>
+    <t>Display bar graph</t>
+  </si>
+  <si>
+    <t>Update Vehicle Status</t>
+  </si>
+  <si>
+    <t>2. Goto Vehicle Detials</t>
+  </si>
+  <si>
+    <t>3.Enter Vehile No</t>
+  </si>
+  <si>
+    <t>4.Click Search Button</t>
+  </si>
+  <si>
+    <t>5. Change Status</t>
+  </si>
+  <si>
+    <t>6. Click Update Button</t>
+  </si>
+  <si>
+    <t>Vehicle Searched and Status updated successfully</t>
+  </si>
+  <si>
+    <t>Not Solved</t>
+  </si>
+  <si>
+    <t>1.Login to system</t>
+  </si>
+  <si>
+    <t>Refresh graph and get new values on change of from and to dates</t>
+  </si>
+  <si>
+    <t>1. Goto Dashboard</t>
+  </si>
+  <si>
+    <t>2. Change any date from or to</t>
+  </si>
+  <si>
+    <t>3. Graphs is ploted</t>
+  </si>
+  <si>
+    <t>Graphs is plotted with updated data successfully</t>
+  </si>
+  <si>
+    <t>AVEES-002</t>
+  </si>
+  <si>
+    <t>System Crases Sometime</t>
+  </si>
+  <si>
+    <t>2.Event Handing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,16 +315,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -233,11 +358,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -248,17 +388,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,205 +740,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6960B7D-E4AE-4A32-AACA-8550665F0CBE}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="6" width="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="7.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C6" s="15"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="9">
+        <v>5647</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -782,95 +1050,215 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB92250-0636-4F8B-A951-99AF439050CF}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection sqref="A1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="1" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="15">
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="F6:F11"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="D2:D5"/>
@@ -883,23 +1271,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0B3534-9B28-4086-A87C-A284AA81DE17}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
@@ -920,22 +1308,42 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="6" t="s">
         <v>47</v>
       </c>
     </row>
